--- a/Descriptives/Herramientas/Input/base_nombres_departamentos.xlsx
+++ b/Descriptives/Herramientas/Input/base_nombres_departamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anapi\OneDrive - Universidad EAFIT\2021_BID_PulsoSocial\01_Analisis_empirico\01_Datos\Descriptives\Herramientas\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit-my.sharepoint.com/personal/jmunozm1_eafit_edu_co/Documents/Projects/2021_BID_PulsoSocial/01_Analisis_empirico/01_Datos/Descriptives/Herramientas/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FC7372-5CB5-4FBC-A9F7-C05E645251ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{06FC7372-5CB5-4FBC-A9F7-C05E645251ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C7BD621-8B1A-4EC2-98B3-B50FAA620319}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="2420" windowWidth="14400" windowHeight="8260" xr2:uid="{E4AC7929-B0D6-4D9D-A43F-B9F669358718}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="8260" xr2:uid="{E4AC7929-B0D6-4D9D-A43F-B9F669358718}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>Putumayo</t>
   </si>
   <si>
-    <t>Qundío</t>
-  </si>
-  <si>
     <t>Risaralda</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>nivel_label</t>
+  </si>
+  <si>
+    <t>Quindío</t>
   </si>
 </sst>
 </file>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC992535-D41E-4535-B0D0-3B26E0AA50EB}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,10 +504,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -707,7 +707,7 @@
         <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -715,7 +715,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -723,7 +723,7 @@
         <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -731,7 +731,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -739,7 +739,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -747,7 +747,7 @@
         <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -755,7 +755,7 @@
         <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -763,7 +763,7 @@
         <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -771,7 +771,7 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Descriptives/Herramientas/Input/base_nombres_departamentos.xlsx
+++ b/Descriptives/Herramientas/Input/base_nombres_departamentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit-my.sharepoint.com/personal/jmunozm1_eafit_edu_co/Documents/Projects/2021_BID_PulsoSocial/01_Analisis_empirico/01_Datos/Descriptives/Herramientas/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anapi\OneDrive - Universidad EAFIT\2021_BID_PulsoSocial\01_Analisis_empirico\01_Datos\Descriptives\Herramientas\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{06FC7372-5CB5-4FBC-A9F7-C05E645251ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C7BD621-8B1A-4EC2-98B3-B50FAA620319}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54A54E10-D580-4C7A-A84B-5A74ACDC1A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="8260" xr2:uid="{E4AC7929-B0D6-4D9D-A43F-B9F669358718}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{E4AC7929-B0D6-4D9D-A43F-B9F669358718}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC992535-D41E-4535-B0D0-3B26E0AA50EB}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>

--- a/Descriptives/Herramientas/Input/base_nombres_departamentos.xlsx
+++ b/Descriptives/Herramientas/Input/base_nombres_departamentos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anapi\OneDrive - Universidad EAFIT\2021_BID_PulsoSocial\01_Analisis_empirico\01_Datos\Descriptives\Herramientas\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit-my.sharepoint.com/personal/jmunozm1_eafit_edu_co/Documents/Projects/2021_BID_PulsoSocial/01_Analisis_empirico/01_Datos/Descriptives/Herramientas/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54A54E10-D580-4C7A-A84B-5A74ACDC1A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{54A54E10-D580-4C7A-A84B-5A74ACDC1A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40D35CF1-1E83-4D7F-8350-2C0F09132890}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{E4AC7929-B0D6-4D9D-A43F-B9F669358718}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Amazonas</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Quindío</t>
+  </si>
+  <si>
+    <t>Otros departamentos</t>
   </si>
 </sst>
 </file>
@@ -490,16 +493,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC992535-D41E-4535-B0D0-3B26E0AA50EB}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -774,6 +777,14 @@
         <v>31</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
